--- a/data.xlsx
+++ b/data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>id</t>
   </si>
@@ -27,64 +27,25 @@
     <t>name</t>
   </si>
   <si>
-    <t>student1</t>
-  </si>
-  <si>
-    <t>student2</t>
-  </si>
-  <si>
-    <t>student3</t>
-  </si>
-  <si>
-    <t>student4</t>
-  </si>
-  <si>
-    <t>student5</t>
-  </si>
-  <si>
-    <t>student6</t>
-  </si>
-  <si>
-    <t>student7</t>
-  </si>
-  <si>
-    <t>student8</t>
-  </si>
-  <si>
-    <t>student9</t>
-  </si>
-  <si>
-    <t>student10</t>
-  </si>
-  <si>
-    <t>student11</t>
-  </si>
-  <si>
-    <t>student12</t>
-  </si>
-  <si>
-    <t>student13</t>
-  </si>
-  <si>
-    <t>student14</t>
-  </si>
-  <si>
-    <t>student15</t>
-  </si>
-  <si>
-    <t>student16</t>
-  </si>
-  <si>
-    <t>student17</t>
-  </si>
-  <si>
-    <t>student18</t>
-  </si>
-  <si>
-    <t>student19</t>
-  </si>
-  <si>
-    <t>student20</t>
+    <t>maria</t>
+  </si>
+  <si>
+    <t>sara</t>
+  </si>
+  <si>
+    <t>aya</t>
+  </si>
+  <si>
+    <t>roula</t>
+  </si>
+  <si>
+    <t>souha</t>
+  </si>
+  <si>
+    <t>maya</t>
+  </si>
+  <si>
+    <t>nour</t>
   </si>
 </sst>
 </file>
@@ -402,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -474,110 +435,6 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>21</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
